--- a/docs/StructureDefinition-Location.xlsx
+++ b/docs/StructureDefinition-Location.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.6</t>
+    <t>1.4.10</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-18T11:22:00+00:00</t>
+    <t>2025-04-18T16:44:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Location.xlsx
+++ b/docs/StructureDefinition-Location.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.10</t>
+    <t>1.4.15</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-18T16:44:16+00:00</t>
+    <t>2025-04-30T18:27:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Location.xlsx
+++ b/docs/StructureDefinition-Location.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.15</t>
+    <t>1.5.11</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-30T18:27:21+00:00</t>
+    <t>2025-05-08T08:24:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Location.xlsx
+++ b/docs/StructureDefinition-Location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-08T08:24:02+00:00</t>
+    <t>2025-05-08T08:54:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Location.xlsx
+++ b/docs/StructureDefinition-Location.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.11</t>
+    <t>1.5.16</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-08T08:54:46+00:00</t>
+    <t>2025-05-12T19:54:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Location.xlsx
+++ b/docs/StructureDefinition-Location.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.16</t>
+    <t>1.5.23</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-12T19:54:30+00:00</t>
+    <t>2025-05-23T16:28:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -730,7 +730,8 @@
     <t>756: source value based on HOSPITAL LOCATION - NAME (44-.01)</t>
   </si>
   <si>
-    <t>Dim.Location.LocationName,Dim.Location.LocationName</t>
+    <t>Dim.Location.LocationName
+Dim.Location.LocationName</t>
   </si>
   <si>
     <t>.name</t>
@@ -755,7 +756,8 @@
     <t>1277: source value based on HOSPITAL LOCATION - SYNONYM (44-13)</t>
   </si>
   <si>
-    <t>Dim.Location.LocationAbbreviation,Dim.Location.LocationAbbreviation</t>
+    <t>Dim.Location.LocationAbbreviation
+Dim.Location.LocationAbbreviation</t>
   </si>
   <si>
     <t>Location.description</t>
@@ -773,7 +775,8 @@
     <t>1279: source value based on HOSPITAL LOCATION - PATIENT FRIENDLY NAME (44-60)</t>
   </si>
   <si>
-    <t>Dim.Location.PatientFriendlyLocationName,Dim.Location.PatientFriendlyLocationName</t>
+    <t>Dim.Location.PatientFriendlyLocationName
+Dim.Location.PatientFriendlyLocationName</t>
   </si>
   <si>
     <t>.playingEntity[classCode=PLC determinerCode=INSTANCE].desc</t>
@@ -924,7 +927,8 @@
     <t>1412: source value based on HOSPITAL LOCATION - SERVICE (44-9)</t>
   </si>
   <si>
-    <t>Dim.Location.MedicalService,Dim.Location.MedicalService</t>
+    <t>Dim.Location.MedicalService
+Dim.Location.MedicalService</t>
   </si>
   <si>
     <t>./code</t>
@@ -1170,7 +1174,8 @@
     <t>1280: transform using concat (44-99," ext. ",44-99.1) on HOSPITAL LOCATION - TELEPHONE (44-99)</t>
   </si>
   <si>
-    <t>Dim.Location.PhoneNumber,Dim.Location.PhoneNumber</t>
+    <t>Dim.Location.PhoneNumber
+Dim.Location.PhoneNumber</t>
   </si>
   <si>
     <t>./url</t>
@@ -1374,7 +1379,10 @@
   </si>
   <si>
     <t>Dim.Location.InstitutionIEN
-Dim.Institution.StreetAddress2,Dim.Institution.StreetAddress2,Dim.InstitutionTimeZone.StreetAddress2,NDim.MVIInstitution.StreetAddress2</t>
+Dim.Institution.StreetAddress2
+Dim.Institution.StreetAddress2
+Dim.InstitutionTimeZone.StreetAddress2
+NDim.MVIInstitution.StreetAddress2</t>
   </si>
   <si>
     <t>AD.part[parttype = AL]</t>
@@ -1403,7 +1411,10 @@
   </si>
   <si>
     <t>Dim.Location.InstitutionIEN
-Dim.Institution.City,Dim.Institution.City,Dim.InstitutionTimeZone.City,NDim.MVIInstitution.City</t>
+Dim.Institution.City
+Dim.Institution.City
+Dim.InstitutionTimeZone.City
+NDim.MVIInstitution.City</t>
   </si>
   <si>
     <t>AD.part[parttype = CTY]</t>
@@ -1435,7 +1446,9 @@
   </si>
   <si>
     <t>Dim.Location.InstitutionIEN
-Dim.Institution.MedicalDistrict,Dim.Institution.MedicalDistrict,NDim.MVIInstitution.MedicalDistrict</t>
+Dim.Institution.MedicalDistrict
+Dim.Institution.MedicalDistrict
+NDim.MVIInstitution.MedicalDistrict</t>
   </si>
   <si>
     <t>AD.part[parttype = CNT | CPA]</t>
@@ -1492,7 +1505,10 @@
   </si>
   <si>
     <t>Dim.Location.InstitutionIEN
-Dim.Institution.Zip,Dim.Institution.Zip,Dim.InstitutionTimeZone.Zip,NDim.MVIInstitution.Zip</t>
+Dim.Institution.Zip
+Dim.Institution.Zip
+Dim.InstitutionTimeZone.Zip
+NDim.MVIInstitution.Zip</t>
   </si>
   <si>
     <t>AD.part[parttype = ZIP]</t>
@@ -1579,7 +1595,8 @@
     <t>1284: source value based on HOSPITAL LOCATION - PHYSICAL LOCATION (44-10)</t>
   </si>
   <si>
-    <t>Dim.Location.PhysicalLocation,Dim.Location.PhysicalLocation</t>
+    <t>Dim.Location.PhysicalLocation
+Dim.Location.PhysicalLocation</t>
   </si>
   <si>
     <t>Location.position</t>
@@ -2246,7 +2263,7 @@
     <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="118.859375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="111.41796875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="37.671875" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="87.9765625" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="31.65234375" customWidth="true" bestFit="true"/>
   </cols>

--- a/docs/StructureDefinition-Location.xlsx
+++ b/docs/StructureDefinition-Location.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.23</t>
+    <t>1.5.30</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-23T16:28:56+00:00</t>
+    <t>2025-05-25T09:23:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Location.xlsx
+++ b/docs/StructureDefinition-Location.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.30</t>
+    <t>1.6.49</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-25T09:23:19+00:00</t>
+    <t>2025-06-13T16:10:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
